--- a/DAIIA/HWs/documents/hw2/q3-vasilis.xlsx
+++ b/DAIIA/HWs/documents/hw2/q3-vasilis.xlsx
@@ -733,7 +733,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection sqref="A1:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -742,38 +742,38 @@
       <c r="A1" s="12"/>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="21" t="s">
